--- a/data/resumes_scrubbed/legislative_activity/98_2.xlsx
+++ b/data/resumes_scrubbed/legislative_activity/98_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/legislative_activity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D07A1CF8-31AF-4C4C-BAC0-1683CA5FDD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{D07A1CF8-31AF-4C4C-BAC0-1683CA5FDD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56F40C0A-2798-482C-8ADA-CDE9ED21D1AE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Senate</t>
   </si>
@@ -35,15 +35,6 @@
   </si>
   <si>
     <t>852 hrs., 59'</t>
-  </si>
-  <si>
-    <t>12,29</t>
-  </si>
-  <si>
-    <t>4'i</t>
-  </si>
-  <si>
-    <t>:m</t>
   </si>
   <si>
     <t>Congress</t>
@@ -1064,7 +1055,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>98</v>
@@ -1078,7 +1069,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1092,7 +1083,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3">
         <v>30704</v>
@@ -1106,7 +1097,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3">
         <v>30967</v>
@@ -1120,7 +1111,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>131</v>
@@ -1131,7 +1122,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -1142,13 +1133,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>14650</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
+      <c r="C8" s="2">
+        <v>12291</v>
       </c>
       <c r="D8" s="2">
         <v>26896</v>
@@ -1156,7 +1147,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2">
         <v>4580</v>
@@ -1164,7 +1155,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>166</v>
@@ -1178,7 +1169,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>17</v>
@@ -1186,13 +1177,13 @@
       <c r="C11" s="1">
         <v>29</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
+      <c r="D11" s="1">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -1206,7 +1197,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1">
         <v>22</v>
@@ -1220,7 +1211,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
         <v>726</v>
@@ -1234,7 +1225,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>159</v>
@@ -1245,7 +1236,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1">
         <v>240</v>
@@ -1256,7 +1247,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1">
         <v>90</v>
@@ -1267,7 +1258,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1">
         <v>55</v>
@@ -1278,7 +1269,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1">
         <v>24</v>
@@ -1289,7 +1280,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1">
         <v>40</v>
@@ -1300,7 +1291,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1">
         <v>118</v>
@@ -1311,7 +1302,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1">
         <v>568</v>
@@ -1325,7 +1316,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1">
         <v>230</v>
@@ -1336,18 +1327,18 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1">
         <v>80</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
+      <c r="C24" s="1">
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1">
         <v>99</v>
@@ -1358,7 +1349,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1">
         <v>16</v>
@@ -1369,7 +1360,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1">
         <v>17</v>
@@ -1377,7 +1368,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1">
         <v>4</v>
@@ -1388,7 +1379,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1">
         <v>122</v>
@@ -1399,7 +1390,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1">
         <v>11</v>
@@ -1410,7 +1401,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C31" s="1">
         <v>53</v>
@@ -1418,7 +1409,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B32" s="1">
         <v>221</v>
@@ -1429,7 +1420,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B33" s="2">
         <v>1302</v>
@@ -1443,7 +1434,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>897</v>
@@ -1454,7 +1445,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B35" s="1">
         <v>150</v>
@@ -1465,7 +1456,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>69</v>
@@ -1476,7 +1467,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>186</v>
@@ -1487,7 +1478,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1">
         <v>19</v>
@@ -1498,7 +1489,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B39" s="1">
         <v>292</v>
@@ -1509,7 +1500,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C40" s="1">
         <v>181</v>
@@ -1517,7 +1508,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B41" s="1">
         <v>8</v>
@@ -1531,7 +1522,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>

--- a/data/resumes_scrubbed/legislative_activity/98_2.xlsx
+++ b/data/resumes_scrubbed/legislative_activity/98_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/legislative_activity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{D07A1CF8-31AF-4C4C-BAC0-1683CA5FDD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56F40C0A-2798-482C-8ADA-CDE9ED21D1AE}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{D07A1CF8-31AF-4C4C-BAC0-1683CA5FDD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26C523DB-E4A4-4D92-A9D5-6240E9D1E425}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="98_2" sheetId="1" r:id="rId1"/>
@@ -1139,7 +1139,7 @@
         <v>14650</v>
       </c>
       <c r="C8" s="2">
-        <v>12291</v>
+        <v>12293</v>
       </c>
       <c r="D8" s="2">
         <v>26896</v>
@@ -1178,7 +1178,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="1">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
